--- a/LubanTools/Datas/__tables__.xlsx
+++ b/LubanTools/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\GDFrame_Qf\LubanTools\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\Anonymous\LubanTools\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0252FDA-A383-487F-B5F1-667D941ED35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8D70EC-8EFE-4C91-8BFF-C529F4737F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23016" yWindow="600" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -101,28 +101,6 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>item.TbItem</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>item.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>worldObj.TbObj</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorldObj</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorldObj.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -480,7 +458,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,32 +561,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
